--- a/FileGunBasin/9 August-04 StormBasin/360 melgroups creation 1/reddit schema 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/360 melgroups creation 1/reddit schema 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/360 melgroups creation 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1BD127-4D65-C047-94DD-E6D9F9736650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8131DB-3E04-AC4C-8371-3EEE17B8F932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19320" xr2:uid="{9B98EE3B-482C-E441-83FA-D5F47A4C89ED}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="50">
   <si>
     <t>tracking_id</t>
   </si>
@@ -202,6 +202,12 @@
   </si>
   <si>
     <t>url_datum</t>
+  </si>
+  <si>
+    <t>db table name</t>
+  </si>
+  <si>
+    <t>reddit_urls_vat</t>
   </si>
 </sst>
 </file>
@@ -587,11 +593,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E083049-E7E2-CE40-9F40-2BC44B5FD032}">
-  <dimension ref="B1:G34"/>
+  <dimension ref="B1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -603,62 +609,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" t="e" cm="1">
-        <f t="array" ref="G5">-- Primary key</f>
-        <v>#NAME?</v>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G7" t="e" cm="1">
-        <f t="array" ref="G7">-- Reddit URL information</f>
+        <f t="array" ref="G7">-- Primary key</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
       </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" t="e" cm="1">
+        <f t="array" ref="G8">-- Reddit URL information</f>
+        <v>#NAME?</v>
+      </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
@@ -666,12 +671,23 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>8</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -734,189 +750,189 @@
         <v>17</v>
       </c>
     </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="G21" t="e" cm="1">
+        <f t="array" ref="G21">-- Traffic estimates</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" t="e" cm="1">
-        <f t="array" ref="G23">-- Traffic estimates</f>
-        <v>#NAME?</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" t="s">
-        <v>14</v>
+        <v>32</v>
+      </c>
+      <c r="G24" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>23</v>
+        <v>35</v>
+      </c>
+      <c r="G25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D27" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E27" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" t="s">
-        <v>33</v>
+        <v>40</v>
+      </c>
+      <c r="F27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" t="e" cm="1">
+        <f t="array" ref="G27">-- Timestamps</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D29" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E29" t="s">
-        <v>35</v>
-      </c>
-      <c r="G29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" t="s">
-        <v>35</v>
-      </c>
-      <c r="G30" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>39</v>
-      </c>
-      <c r="D32" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" t="s">
-        <v>40</v>
-      </c>
-      <c r="F32" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" t="e" cm="1">
-        <f t="array" ref="G32">-- Timestamps</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" t="s">
-        <v>41</v>
-      </c>
-      <c r="E33" t="s">
         <v>42</v>
       </c>
-      <c r="F33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34" t="s">
-        <v>42</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="F29" t="s">
         <v>43</v>
       </c>
     </row>
